--- a/all_features/all_features.xlsx
+++ b/all_features/all_features.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
   <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <name val="Verdana"/>
       <sz val="10"/>
@@ -19,6 +19,32 @@
     <font>
       <name val="Verdana"/>
       <sz val="8"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <color rgb="FF0000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <color rgb="AABBCC"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Comic Sans Ms"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="4"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -27,19 +53,6 @@
     </font>
     <font>
       <name val="Verdana"/>
-      <b val="1"/>
-      <sz val="10"/>
-      <u val="1"/>
-    </font>
-    <font>
-      <name val="Verdana"/>
-      <b val="1"/>
-      <strike val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Verdana"/>
-      <b val="1"/>
       <i val="1"/>
       <sz val="10"/>
     </font>
@@ -50,19 +63,11 @@
     </font>
     <font>
       <name val="Verdana"/>
-      <color rgb="FF0000"/>
+      <strike val="1"/>
       <sz val="10"/>
     </font>
-    <font>
-      <name val="Comic Sans MS"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Verdana"/>
-      <sz val="20"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,14 +76,28 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FF00"/>
+        <fgColor rgb="FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="AABBCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="12">
     <border/>
     <border>
       <top style="thin"/>
+    </border>
+    <border>
+      <right style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -96,19 +115,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-    </border>
-    <border>
-      <right style="thin"/>
-      <top style="thin"/>
-    </border>
-    <border>
       <top style="dashed"/>
     </border>
     <border>
@@ -126,119 +132,12 @@
       <top style="dashed"/>
       <bottom style="dashed"/>
     </border>
-    <border>
-      <top style="dotted"/>
-    </border>
-    <border>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-    </border>
-    <border>
-      <top style="double"/>
-    </border>
-    <border>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <top style="medium"/>
-    </border>
-    <border>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
-    <border>
-      <top style="thick"/>
-    </border>
-    <border>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1"/>
@@ -250,25 +149,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -281,6 +178,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
     <xf numFmtId="48" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,233 +514,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:C53"/>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="false">
-      <c r="A1" s="2" t="str">
-        <v>Header1</v>
-      </c>
-      <c r="B1" s="3" t="str">
-        <v>Header2</v>
-      </c>
-      <c r="C1" s="7" t="str">
-        <v>Header3</v>
-      </c>
-      <c r="D1" s="10" t="str">
-        <v>Header4</v>
-      </c>
-      <c r="E1" s="2" t="str">
-        <v>Header5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="false">
-      <c r="A2" s="0">
+    <row r="1" spans="1:3" customFormat="false">
+      <c r="A1" s="0" t="str">
+        <v>border</v>
+      </c>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+    </row>
+    <row r="2" spans="1:3" customFormat="false">
+      <c r="A2" s="0"/>
+      <c r="B2" s="1" t="str">
+        <v>border=top</v>
+      </c>
+      <c r="C2" s="0"/>
+    </row>
+    <row r="3" spans="1:3" customFormat="false">
+      <c r="A3" s="0"/>
+      <c r="B3" s="2" t="str">
+        <v>border=right</v>
+      </c>
+      <c r="C3" s="0"/>
+    </row>
+    <row r="4" spans="1:3" customFormat="false">
+      <c r="A4" s="0"/>
+      <c r="B4" s="3" t="str">
+        <v>border=bottom</v>
+      </c>
+      <c r="C4" s="0"/>
+    </row>
+    <row r="5" spans="1:3" customFormat="false">
+      <c r="A5" s="0"/>
+      <c r="B5" s="4" t="str">
+        <v>border=left</v>
+      </c>
+      <c r="C5" s="0"/>
+    </row>
+    <row r="6" spans="1:3" customFormat="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="7" t="str">
+        <v>border=all</v>
+      </c>
+      <c r="C6" s="0"/>
+    </row>
+    <row r="7" spans="1:3" customFormat="false">
+      <c r="A7" s="0" t="str">
+        <v>borderstyle</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+    </row>
+    <row r="8" spans="1:3" customFormat="false">
+      <c r="A8" s="0"/>
+      <c r="B8" s="11" t="str">
+        <v>border=all/borderstyle=dashed</v>
+      </c>
+      <c r="C8" s="0"/>
+    </row>
+    <row r="9" spans="1:3" customFormat="false">
+      <c r="A9" s="0"/>
+      <c r="B9" s="7" t="str">
+        <v>border=all/borderstyle=solid</v>
+      </c>
+      <c r="C9" s="0"/>
+    </row>
+    <row r="10" spans="1:3" customFormat="false">
+      <c r="A10" s="0" t="str">
+        <v>color</v>
+      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+    </row>
+    <row r="11" spans="1:3" customFormat="false">
+      <c r="A11" s="0"/>
+      <c r="B11" s="12" t="str">
+        <v>color=FF0000</v>
+      </c>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" spans="1:3" customFormat="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="13" t="str">
+        <v>color=ABC</v>
+      </c>
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" spans="1:3" customFormat="false">
+      <c r="A13" s="0" t="str">
+        <v>expand</v>
+      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+    </row>
+    <row r="14" spans="1:3" customFormat="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0" t="str">
+        <v>expand=3</v>
+      </c>
+      <c r="C14" s="0"/>
+    </row>
+    <row r="15" spans="1:3" customFormat="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0" t="str">
+        <v>expand=3</v>
+      </c>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" spans="1:3" customFormat="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0" t="str">
+        <v>expand=3</v>
+      </c>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" spans="1:3" customFormat="false">
+      <c r="A17" s="0" t="str">
+        <v>fontcolor</v>
+      </c>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+    </row>
+    <row r="18" spans="1:3" customFormat="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="14" t="str">
+        <v>fontcolor=FF0000</v>
+      </c>
+      <c r="C18" s="0"/>
+    </row>
+    <row r="19" spans="1:3" customFormat="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="15" t="str">
+        <v>fontcolor=ABC</v>
+      </c>
+      <c r="C19" s="0"/>
+    </row>
+    <row r="20" spans="1:3" customFormat="false">
+      <c r="A20" s="0" t="str">
+        <v>fontfamily</v>
+      </c>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+    </row>
+    <row r="21" spans="1:3" customFormat="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="16" t="str">
+        <v>fontfamily='Comic Sans MS'</v>
+      </c>
+      <c r="C21" s="0"/>
+    </row>
+    <row r="22" spans="1:3" customFormat="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="17" t="str">
+        <v>fontfamily='Helvetica'</v>
+      </c>
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" spans="1:3" customFormat="false">
+      <c r="A23" s="0" t="str">
+        <v>fontsize</v>
+      </c>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+    </row>
+    <row r="24" spans="1:3" customFormat="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="18" t="str">
+        <v>fontsize=20</v>
+      </c>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" spans="1:3" customFormat="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="19" t="str">
+        <v>fontsize=4</v>
+      </c>
+      <c r="C25" s="0"/>
+    </row>
+    <row r="26" spans="1:3" customFormat="false">
+      <c r="A26" s="0" t="str">
+        <v>format</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+    </row>
+    <row r="27" spans="1:3" customFormat="false">
+      <c r="A27" s="0"/>
+      <c r="B27" s="20" t="str">
+        <v>format=bold</v>
+      </c>
+      <c r="C27" s="0"/>
+    </row>
+    <row r="28" spans="1:3" customFormat="false">
+      <c r="A28" s="0"/>
+      <c r="B28" s="21" t="str">
+        <v>format=italic</v>
+      </c>
+      <c r="C28" s="0"/>
+    </row>
+    <row r="29" spans="1:3" customFormat="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="22" t="str">
+        <v>format=underline</v>
+      </c>
+      <c r="C29" s="0"/>
+    </row>
+    <row r="30" spans="1:3" customFormat="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="23" t="str">
+        <v>format=strikethrough</v>
+      </c>
+      <c r="C30" s="0"/>
+    </row>
+    <row r="31" spans="1:3" customFormat="false">
+      <c r="A31" s="0" t="str">
+        <v>halign</v>
+      </c>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+    </row>
+    <row r="32" spans="1:3" customFormat="false">
+      <c r="A32" s="0"/>
+      <c r="B32" s="24" t="str">
+        <v>halign=left</v>
+      </c>
+      <c r="C32" s="0"/>
+    </row>
+    <row r="33" spans="1:3" customFormat="false">
+      <c r="A33" s="0"/>
+      <c r="B33" s="25" t="str">
+        <v>halign=center</v>
+      </c>
+      <c r="C33" s="0"/>
+    </row>
+    <row r="34" spans="1:3" customFormat="false">
+      <c r="A34" s="0"/>
+      <c r="B34" s="26" t="str">
+        <v>halign=right</v>
+      </c>
+      <c r="C34" s="0"/>
+    </row>
+    <row r="35" spans="1:3" customFormat="false">
+      <c r="A35" s="0" t="str">
+        <v>note</v>
+      </c>
+      <c r="B35" s="0"/>
+      <c r="C35" s="0"/>
+    </row>
+    <row r="36" spans="1:3" customFormat="false">
+      <c r="A36" s="0"/>
+      <c r="B36" s="0" t="str">
+        <v>note='this is a note'</v>
+      </c>
+      <c r="C36" s="0"/>
+    </row>
+    <row r="37" spans="1:3" customFormat="false">
+      <c r="A37" s="0" t="str">
+        <v>numberformat</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+    </row>
+    <row r="38" spans="1:3" customFormat="false">
+      <c r="A38" s="0"/>
+      <c r="B38" s="27" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C38" s="0"/>
+    </row>
+    <row r="39" spans="1:3" customFormat="false">
+      <c r="A39" s="0"/>
+      <c r="B39" s="28" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C39" s="0"/>
+    </row>
+    <row r="40" spans="1:3" customFormat="false">
+      <c r="A40" s="0"/>
+      <c r="B40" s="29" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C40" s="0"/>
+    </row>
+    <row r="41" spans="1:3" customFormat="false">
+      <c r="A41" s="0"/>
+      <c r="B41" s="30" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C41" s="0"/>
+    </row>
+    <row r="42" spans="1:3" customFormat="false">
+      <c r="A42" s="0"/>
+      <c r="B42" s="31" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C42" s="0"/>
+    </row>
+    <row r="43" spans="1:3" customFormat="false">
+      <c r="A43" s="0"/>
+      <c r="B43" s="32" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C43" s="0"/>
+    </row>
+    <row r="44" spans="1:3" customFormat="false">
+      <c r="A44" s="0"/>
+      <c r="B44" s="33" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C44" s="0"/>
+    </row>
+    <row r="45" spans="1:3" customFormat="false">
+      <c r="A45" s="0"/>
+      <c r="B45" s="34" t="str">
+        <v>123456</v>
+      </c>
+      <c r="C45" s="0"/>
+    </row>
+    <row r="46" spans="1:3" customFormat="false">
+      <c r="A46" s="0" t="str">
+        <v>valign</v>
+      </c>
+      <c r="B46" s="0"/>
+      <c r="C46" s="0"/>
+    </row>
+    <row r="47" spans="1:3" customFormat="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="35" t="str">
+        <v>valign=top</v>
+      </c>
+      <c r="C47" s="0"/>
+    </row>
+    <row r="48" spans="1:3" customFormat="false">
+      <c r="A48" s="0"/>
+      <c r="B48" s="36" t="str">
+        <v>valign=center</v>
+      </c>
+      <c r="C48" s="0"/>
+    </row>
+    <row r="49" spans="1:3" customFormat="false">
+      <c r="A49" s="0"/>
+      <c r="B49" s="37" t="str">
+        <v>valign=bottom</v>
+      </c>
+      <c r="C49" s="0"/>
+    </row>
+    <row r="50" spans="1:3" customFormat="false">
+      <c r="A50" s="0" t="str">
+        <v>variables</v>
+      </c>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+    </row>
+    <row r="51" spans="1:3" customFormat="false">
+      <c r="A51" s="0"/>
+      <c r="B51" s="0" t="str">
+        <v>depends_on_another</v>
+      </c>
+      <c r="C51" s="0">
         <f>(1 + 2)</f>
         <v/>
       </c>
-      <c r="B2" s="11">
+    </row>
+    <row r="52" spans="1:3" customFormat="false">
+      <c r="A52" s="0"/>
+      <c r="B52" s="0" t="str">
+        <v>my_function()</v>
+      </c>
+      <c r="C52" s="0">
+        <f>((1 + 2) * 8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:3" customFormat="false">
+      <c r="A53" s="0"/>
+      <c r="B53" s="0" t="str">
+        <v>simple_var</v>
+      </c>
+      <c r="C53" s="0">
         <f>1</f>
         <v/>
       </c>
-      <c r="C2" s="0" t="str">
-        <v>These are variables</v>
-      </c>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" spans="1:2" customFormat="false">
-      <c r="A3" s="0" t="str">
-        <v>A note</v>
-      </c>
-      <c r="B3" s="0"/>
-    </row>
-    <row r="4" spans="1:2" customFormat="false">
-      <c r="A4" s="12" t="str">
-        <v>The font is red</v>
-      </c>
-      <c r="B4" s="0"/>
-    </row>
-    <row r="5" spans="1:2" customFormat="false">
-      <c r="A5" s="13" t="str">
-        <v>The font is 'Comic Sans MS'</v>
-      </c>
-      <c r="B5" s="0"/>
-    </row>
-    <row r="6" spans="1:2" customFormat="false">
-      <c r="A6" s="14" t="str">
-        <v>The font is size 20</v>
-      </c>
-      <c r="B6" s="0"/>
-    </row>
-    <row r="7" spans="1:2" customFormat="false">
-      <c r="A7" s="15" t="str">
-        <v>The cell is green</v>
-      </c>
-      <c r="B7" s="0"/>
-    </row>
-    <row r="8" spans="1:2" customFormat="false">
-      <c r="A8" s="0" t="str">
-        <v>This line is repeated 3 times</v>
-      </c>
-      <c r="B8" s="0"/>
-    </row>
-    <row r="9" spans="1:2" customFormat="false">
-      <c r="A9" s="0" t="str">
-        <v>This line is repeated 3 times</v>
-      </c>
-      <c r="B9" s="0"/>
-    </row>
-    <row r="10" spans="1:2" customFormat="false">
-      <c r="A10" s="0" t="str">
-        <v>This line is repeated 3 times</v>
-      </c>
-      <c r="B10" s="0"/>
-    </row>
-    <row r="11" spans="1:2" customFormat="false">
-      <c r="A11" s="19" t="str">
-        <v>All borders</v>
-      </c>
-      <c r="B11" s="0"/>
-    </row>
-    <row r="12" spans="1:3" customFormat="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="16" t="str">
-        <v>Top border</v>
-      </c>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" spans="1:2" customFormat="false">
-      <c r="A13" s="20" t="str">
-        <v>Bottom border</v>
-      </c>
-      <c r="B13" s="0"/>
-    </row>
-    <row r="14" spans="1:3" customFormat="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="21" t="str">
-        <v>Left border</v>
-      </c>
-      <c r="C14" s="0"/>
-    </row>
-    <row r="15" spans="1:2" customFormat="false">
-      <c r="A15" s="22" t="str">
-        <v>Right border</v>
-      </c>
-      <c r="B15" s="0"/>
-    </row>
-    <row r="16" spans="1:3" customFormat="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="23" t="str">
-        <v>Top &amp; right border</v>
-      </c>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" spans="1:4" customFormat="false">
-      <c r="A17" s="27" t="str">
-        <v>Dashed border</v>
-      </c>
-      <c r="B17" s="31" t="str">
-        <v>Dotted border</v>
-      </c>
-      <c r="C17" s="35" t="str">
-        <v>Double border</v>
-      </c>
-      <c r="D17" s="0"/>
-    </row>
-    <row r="18" spans="1:4" customFormat="false">
-      <c r="A18" s="19" t="str">
-        <v>Solid border</v>
-      </c>
-      <c r="B18" s="39" t="str">
-        <v>Solid medium border</v>
-      </c>
-      <c r="C18" s="43" t="str">
-        <v>Solid thick border</v>
-      </c>
-      <c r="D18" s="0"/>
-    </row>
-    <row r="19" spans="1:4" customFormat="false">
-      <c r="A19" s="44" t="str">
-        <v>Left align</v>
-      </c>
-      <c r="B19" s="1" t="str">
-        <v>Center align</v>
-      </c>
-      <c r="C19" s="45" t="str">
-        <v>Right align</v>
-      </c>
-      <c r="D19" s="0"/>
-    </row>
-    <row r="20" spans="1:3" customFormat="false">
-      <c r="A20" s="0" t="str">
-        <v>Number format: currency</v>
-      </c>
-      <c r="B20" s="46" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C20" s="0"/>
-    </row>
-    <row r="21" spans="1:3" customFormat="false">
-      <c r="A21" s="0" t="str">
-        <v>Number format: date</v>
-      </c>
-      <c r="B21" s="47" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C21" s="0"/>
-    </row>
-    <row r="22" spans="1:3" customFormat="false">
-      <c r="A22" s="0" t="str">
-        <v>Number format: date_time</v>
-      </c>
-      <c r="B22" s="48" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C22" s="0"/>
-    </row>
-    <row r="23" spans="1:3" customFormat="false">
-      <c r="A23" s="0" t="str">
-        <v>Number format: number</v>
-      </c>
-      <c r="B23" s="49" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C23" s="0"/>
-    </row>
-    <row r="24" spans="1:3" customFormat="false">
-      <c r="A24" s="0" t="str">
-        <v>Number format: percent</v>
-      </c>
-      <c r="B24" s="50" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" spans="1:3" customFormat="false">
-      <c r="A25" s="0" t="str">
-        <v>Number format: text</v>
-      </c>
-      <c r="B25" s="51" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" spans="1:3" customFormat="false">
-      <c r="A26" s="0" t="str">
-        <v>Number format: time</v>
-      </c>
-      <c r="B26" s="52" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C26" s="0"/>
-    </row>
-    <row r="27" spans="1:3" customFormat="false">
-      <c r="A27" s="0" t="str">
-        <v>Number format: scientific</v>
-      </c>
-      <c r="B27" s="53" t="str">
-        <v>123456</v>
-      </c>
-      <c r="C27" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/all_features/all_features.xlsx
+++ b/all_features/all_features.xlsx
@@ -514,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C65"/>
   <sheetData>
     <row r="1" spans="1:3" customFormat="false">
       <c r="A1" s="0" t="str">
@@ -559,339 +559,415 @@
       <c r="C6" s="0"/>
     </row>
     <row r="7" spans="1:3" customFormat="false">
-      <c r="A7" s="0" t="str">
-        <v>borderstyle</v>
-      </c>
+      <c r="A7" s="0"/>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
     </row>
     <row r="8" spans="1:3" customFormat="false">
-      <c r="A8" s="0"/>
-      <c r="B8" s="11" t="str">
-        <v>border=all/borderstyle=dashed</v>
-      </c>
+      <c r="A8" s="0" t="str">
+        <v>borderstyle</v>
+      </c>
+      <c r="B8" s="0"/>
       <c r="C8" s="0"/>
     </row>
     <row r="9" spans="1:3" customFormat="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="7" t="str">
+      <c r="B9" s="11" t="str">
+        <v>border=all/borderstyle=dashed</v>
+      </c>
+      <c r="C9" s="0"/>
+    </row>
+    <row r="10" spans="1:3" customFormat="false">
+      <c r="A10" s="0"/>
+      <c r="B10" s="7" t="str">
         <v>border=all/borderstyle=solid</v>
       </c>
-      <c r="C9" s="0"/>
-    </row>
-    <row r="10" spans="1:3" customFormat="false">
-      <c r="A10" s="0" t="str">
-        <v>color</v>
-      </c>
-      <c r="B10" s="0"/>
       <c r="C10" s="0"/>
     </row>
     <row r="11" spans="1:3" customFormat="false">
       <c r="A11" s="0"/>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+    </row>
+    <row r="12" spans="1:3" customFormat="false">
+      <c r="A12" s="0" t="str">
+        <v>color</v>
+      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+    </row>
+    <row r="13" spans="1:3" customFormat="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="12" t="str">
         <v>color=FF0000</v>
       </c>
-      <c r="C11" s="0"/>
-    </row>
-    <row r="12" spans="1:3" customFormat="false">
-      <c r="A12" s="0"/>
-      <c r="B12" s="13" t="str">
-        <v>color=ABC</v>
-      </c>
-      <c r="C12" s="0"/>
-    </row>
-    <row r="13" spans="1:3" customFormat="false">
-      <c r="A13" s="0" t="str">
-        <v>expand</v>
-      </c>
-      <c r="B13" s="0"/>
       <c r="C13" s="0"/>
     </row>
     <row r="14" spans="1:3" customFormat="false">
       <c r="A14" s="0"/>
-      <c r="B14" s="0" t="str">
-        <v>expand=3</v>
+      <c r="B14" s="13" t="str">
+        <v>color=ABC</v>
       </c>
       <c r="C14" s="0"/>
     </row>
     <row r="15" spans="1:3" customFormat="false">
       <c r="A15" s="0"/>
-      <c r="B15" s="0" t="str">
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+    </row>
+    <row r="16" spans="1:3" customFormat="false">
+      <c r="A16" s="0" t="str">
+        <v>expand</v>
+      </c>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+    </row>
+    <row r="17" spans="1:3" customFormat="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0" t="str">
         <v>expand=3</v>
       </c>
-      <c r="C15" s="0"/>
-    </row>
-    <row r="16" spans="1:3" customFormat="false">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0" t="str">
-        <v>expand=3</v>
-      </c>
-      <c r="C16" s="0"/>
-    </row>
-    <row r="17" spans="1:3" customFormat="false">
-      <c r="A17" s="0" t="str">
-        <v>fontcolor</v>
-      </c>
-      <c r="B17" s="0"/>
       <c r="C17" s="0"/>
     </row>
     <row r="18" spans="1:3" customFormat="false">
       <c r="A18" s="0"/>
-      <c r="B18" s="14" t="str">
-        <v>fontcolor=FF0000</v>
+      <c r="B18" s="0" t="str">
+        <v>expand=3</v>
       </c>
       <c r="C18" s="0"/>
     </row>
     <row r="19" spans="1:3" customFormat="false">
       <c r="A19" s="0"/>
-      <c r="B19" s="15" t="str">
-        <v>fontcolor=ABC</v>
+      <c r="B19" s="0" t="str">
+        <v>expand=3</v>
       </c>
       <c r="C19" s="0"/>
     </row>
     <row r="20" spans="1:3" customFormat="false">
-      <c r="A20" s="0" t="str">
-        <v>fontfamily</v>
-      </c>
+      <c r="A20" s="0"/>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
     </row>
     <row r="21" spans="1:3" customFormat="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="16" t="str">
-        <v>fontfamily='Comic Sans MS'</v>
-      </c>
+      <c r="A21" s="0" t="str">
+        <v>fontcolor</v>
+      </c>
+      <c r="B21" s="0"/>
       <c r="C21" s="0"/>
     </row>
     <row r="22" spans="1:3" customFormat="false">
       <c r="A22" s="0"/>
-      <c r="B22" s="17" t="str">
-        <v>fontfamily='Helvetica'</v>
+      <c r="B22" s="14" t="str">
+        <v>fontcolor=FF0000</v>
       </c>
       <c r="C22" s="0"/>
     </row>
     <row r="23" spans="1:3" customFormat="false">
-      <c r="A23" s="0" t="str">
-        <v>fontsize</v>
-      </c>
-      <c r="B23" s="0"/>
+      <c r="A23" s="0"/>
+      <c r="B23" s="15" t="str">
+        <v>fontcolor=ABC</v>
+      </c>
       <c r="C23" s="0"/>
     </row>
     <row r="24" spans="1:3" customFormat="false">
       <c r="A24" s="0"/>
-      <c r="B24" s="18" t="str">
-        <v>fontsize=20</v>
-      </c>
+      <c r="B24" s="0"/>
       <c r="C24" s="0"/>
     </row>
     <row r="25" spans="1:3" customFormat="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="19" t="str">
-        <v>fontsize=4</v>
-      </c>
+      <c r="A25" s="0" t="str">
+        <v>fontfamily</v>
+      </c>
+      <c r="B25" s="0"/>
       <c r="C25" s="0"/>
     </row>
     <row r="26" spans="1:3" customFormat="false">
-      <c r="A26" s="0" t="str">
-        <v>format</v>
-      </c>
-      <c r="B26" s="0"/>
+      <c r="A26" s="0"/>
+      <c r="B26" s="16" t="str">
+        <v>fontfamily='Comic Sans MS'</v>
+      </c>
       <c r="C26" s="0"/>
     </row>
     <row r="27" spans="1:3" customFormat="false">
       <c r="A27" s="0"/>
-      <c r="B27" s="20" t="str">
-        <v>format=bold</v>
+      <c r="B27" s="17" t="str">
+        <v>fontfamily='Helvetica'</v>
       </c>
       <c r="C27" s="0"/>
     </row>
     <row r="28" spans="1:3" customFormat="false">
       <c r="A28" s="0"/>
-      <c r="B28" s="21" t="str">
-        <v>format=italic</v>
-      </c>
+      <c r="B28" s="0"/>
       <c r="C28" s="0"/>
     </row>
     <row r="29" spans="1:3" customFormat="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="22" t="str">
-        <v>format=underline</v>
-      </c>
+      <c r="A29" s="0" t="str">
+        <v>fontsize</v>
+      </c>
+      <c r="B29" s="0"/>
       <c r="C29" s="0"/>
     </row>
     <row r="30" spans="1:3" customFormat="false">
       <c r="A30" s="0"/>
-      <c r="B30" s="23" t="str">
-        <v>format=strikethrough</v>
+      <c r="B30" s="18" t="str">
+        <v>fontsize=20</v>
       </c>
       <c r="C30" s="0"/>
     </row>
     <row r="31" spans="1:3" customFormat="false">
-      <c r="A31" s="0" t="str">
-        <v>halign</v>
-      </c>
-      <c r="B31" s="0"/>
+      <c r="A31" s="0"/>
+      <c r="B31" s="19" t="str">
+        <v>fontsize=4</v>
+      </c>
       <c r="C31" s="0"/>
     </row>
     <row r="32" spans="1:3" customFormat="false">
       <c r="A32" s="0"/>
-      <c r="B32" s="24" t="str">
-        <v>halign=left</v>
-      </c>
+      <c r="B32" s="0"/>
       <c r="C32" s="0"/>
     </row>
     <row r="33" spans="1:3" customFormat="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="25" t="str">
-        <v>halign=center</v>
-      </c>
+      <c r="A33" s="0" t="str">
+        <v>format</v>
+      </c>
+      <c r="B33" s="0"/>
       <c r="C33" s="0"/>
     </row>
     <row r="34" spans="1:3" customFormat="false">
       <c r="A34" s="0"/>
-      <c r="B34" s="26" t="str">
-        <v>halign=right</v>
+      <c r="B34" s="20" t="str">
+        <v>format=bold</v>
       </c>
       <c r="C34" s="0"/>
     </row>
     <row r="35" spans="1:3" customFormat="false">
-      <c r="A35" s="0" t="str">
-        <v>note</v>
-      </c>
-      <c r="B35" s="0"/>
+      <c r="A35" s="0"/>
+      <c r="B35" s="21" t="str">
+        <v>format=italic</v>
+      </c>
       <c r="C35" s="0"/>
     </row>
     <row r="36" spans="1:3" customFormat="false">
       <c r="A36" s="0"/>
-      <c r="B36" s="0" t="str">
-        <v>note='this is a note'</v>
+      <c r="B36" s="22" t="str">
+        <v>format=underline</v>
       </c>
       <c r="C36" s="0"/>
     </row>
     <row r="37" spans="1:3" customFormat="false">
-      <c r="A37" s="0" t="str">
-        <v>numberformat</v>
-      </c>
-      <c r="B37" s="0"/>
+      <c r="A37" s="0"/>
+      <c r="B37" s="23" t="str">
+        <v>format=strikethrough</v>
+      </c>
       <c r="C37" s="0"/>
     </row>
     <row r="38" spans="1:3" customFormat="false">
       <c r="A38" s="0"/>
-      <c r="B38" s="27" t="str">
-        <v>123456</v>
-      </c>
+      <c r="B38" s="0"/>
       <c r="C38" s="0"/>
     </row>
     <row r="39" spans="1:3" customFormat="false">
-      <c r="A39" s="0"/>
-      <c r="B39" s="28" t="str">
-        <v>123456</v>
-      </c>
+      <c r="A39" s="0" t="str">
+        <v>halign</v>
+      </c>
+      <c r="B39" s="0"/>
       <c r="C39" s="0"/>
     </row>
     <row r="40" spans="1:3" customFormat="false">
       <c r="A40" s="0"/>
-      <c r="B40" s="29" t="str">
-        <v>123456</v>
+      <c r="B40" s="24" t="str">
+        <v>halign=left</v>
       </c>
       <c r="C40" s="0"/>
     </row>
     <row r="41" spans="1:3" customFormat="false">
       <c r="A41" s="0"/>
-      <c r="B41" s="30" t="str">
-        <v>123456</v>
+      <c r="B41" s="25" t="str">
+        <v>halign=center</v>
       </c>
       <c r="C41" s="0"/>
     </row>
     <row r="42" spans="1:3" customFormat="false">
       <c r="A42" s="0"/>
-      <c r="B42" s="31" t="str">
-        <v>123456</v>
+      <c r="B42" s="26" t="str">
+        <v>halign=right</v>
       </c>
       <c r="C42" s="0"/>
     </row>
     <row r="43" spans="1:3" customFormat="false">
       <c r="A43" s="0"/>
-      <c r="B43" s="32" t="str">
-        <v>123456</v>
-      </c>
+      <c r="B43" s="0"/>
       <c r="C43" s="0"/>
     </row>
     <row r="44" spans="1:3" customFormat="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="33" t="str">
-        <v>123456</v>
-      </c>
+      <c r="A44" s="0" t="str">
+        <v>note</v>
+      </c>
+      <c r="B44" s="0"/>
       <c r="C44" s="0"/>
     </row>
     <row r="45" spans="1:3" customFormat="false">
       <c r="A45" s="0"/>
-      <c r="B45" s="34" t="str">
-        <v>123456</v>
+      <c r="B45" s="0" t="str">
+        <v>note='this is a note'</v>
       </c>
       <c r="C45" s="0"/>
     </row>
     <row r="46" spans="1:3" customFormat="false">
-      <c r="A46" s="0" t="str">
-        <v>valign</v>
-      </c>
+      <c r="A46" s="0"/>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
     </row>
     <row r="47" spans="1:3" customFormat="false">
-      <c r="A47" s="0"/>
-      <c r="B47" s="35" t="str">
-        <v>valign=top</v>
-      </c>
+      <c r="A47" s="0" t="str">
+        <v>numberformat</v>
+      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0"/>
     </row>
     <row r="48" spans="1:3" customFormat="false">
       <c r="A48" s="0"/>
-      <c r="B48" s="36" t="str">
-        <v>valign=center</v>
-      </c>
-      <c r="C48" s="0"/>
+      <c r="B48" s="0" t="str">
+        <v>numberformat=currency</v>
+      </c>
+      <c r="C48" s="27" t="str">
+        <v>123456</v>
+      </c>
     </row>
     <row r="49" spans="1:3" customFormat="false">
       <c r="A49" s="0"/>
-      <c r="B49" s="37" t="str">
-        <v>valign=bottom</v>
-      </c>
-      <c r="C49" s="0"/>
+      <c r="B49" s="0" t="str">
+        <v>numberformat=date</v>
+      </c>
+      <c r="C49" s="28" t="str">
+        <v>123456</v>
+      </c>
     </row>
     <row r="50" spans="1:3" customFormat="false">
-      <c r="A50" s="0" t="str">
-        <v>variables</v>
-      </c>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
+      <c r="A50" s="0"/>
+      <c r="B50" s="0" t="str">
+        <v>numberformat=date_time</v>
+      </c>
+      <c r="C50" s="29" t="str">
+        <v>123456</v>
+      </c>
     </row>
     <row r="51" spans="1:3" customFormat="false">
       <c r="A51" s="0"/>
       <c r="B51" s="0" t="str">
-        <v>depends_on_another</v>
-      </c>
-      <c r="C51" s="0">
-        <f>(1 + 2)</f>
-        <v/>
+        <v>numberformat=number</v>
+      </c>
+      <c r="C51" s="30" t="str">
+        <v>123456</v>
       </c>
     </row>
     <row r="52" spans="1:3" customFormat="false">
       <c r="A52" s="0"/>
       <c r="B52" s="0" t="str">
-        <v>my_function()</v>
-      </c>
-      <c r="C52" s="0">
-        <f>((1 + 2) * 8)</f>
-        <v/>
+        <v>numberformat=percent</v>
+      </c>
+      <c r="C52" s="31" t="str">
+        <v>123456</v>
       </c>
     </row>
     <row r="53" spans="1:3" customFormat="false">
       <c r="A53" s="0"/>
       <c r="B53" s="0" t="str">
+        <v>numberformat=text</v>
+      </c>
+      <c r="C53" s="32" t="str">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" customFormat="false">
+      <c r="A54" s="0"/>
+      <c r="B54" s="0" t="str">
+        <v>numberformat=time</v>
+      </c>
+      <c r="C54" s="33" t="str">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" customFormat="false">
+      <c r="A55" s="0"/>
+      <c r="B55" s="0" t="str">
+        <v>numberformat=scientific</v>
+      </c>
+      <c r="C55" s="34" t="str">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" customFormat="false">
+      <c r="A56" s="0"/>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
+    </row>
+    <row r="57" spans="1:3" customFormat="false">
+      <c r="A57" s="0" t="str">
+        <v>valign</v>
+      </c>
+      <c r="B57" s="0"/>
+      <c r="C57" s="0"/>
+    </row>
+    <row r="58" spans="1:3" customFormat="false">
+      <c r="A58" s="0"/>
+      <c r="B58" s="35" t="str">
+        <v>valign=top</v>
+      </c>
+      <c r="C58" s="0"/>
+    </row>
+    <row r="59" spans="1:3" customFormat="false">
+      <c r="A59" s="0"/>
+      <c r="B59" s="36" t="str">
+        <v>valign=center</v>
+      </c>
+      <c r="C59" s="0"/>
+    </row>
+    <row r="60" spans="1:3" customFormat="false">
+      <c r="A60" s="0"/>
+      <c r="B60" s="37" t="str">
+        <v>valign=bottom</v>
+      </c>
+      <c r="C60" s="0"/>
+    </row>
+    <row r="61" spans="1:3" customFormat="false">
+      <c r="A61" s="0"/>
+      <c r="B61" s="0"/>
+      <c r="C61" s="0"/>
+    </row>
+    <row r="62" spans="1:3" customFormat="false">
+      <c r="A62" s="0" t="str">
+        <v>variables</v>
+      </c>
+      <c r="B62" s="0"/>
+      <c r="C62" s="0"/>
+    </row>
+    <row r="63" spans="1:3" customFormat="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0" t="str">
+        <v>depends_on_another</v>
+      </c>
+      <c r="C63" s="0">
+        <f>(1 + 2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:3" customFormat="false">
+      <c r="A64" s="0"/>
+      <c r="B64" s="0" t="str">
+        <v>my_function()</v>
+      </c>
+      <c r="C64" s="0">
+        <f>((1 + 2) * 8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" customFormat="false">
+      <c r="A65" s="0"/>
+      <c r="B65" s="0" t="str">
         <v>simple_var</v>
       </c>
-      <c r="C53" s="0">
+      <c r="C65" s="0">
         <f>1</f>
         <v/>
       </c>

--- a/all_features/all_features.xlsx
+++ b/all_features/all_features.xlsx
@@ -14,6 +14,23 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A42" authorId="0">
+      <text>
+        <r>
+          <t>this is a note</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
@@ -554,9 +571,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="$#,##0_-"/>
+    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="178" formatCode="d/m/yy h:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="176" formatCode="$#,##0_-"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1534,5 +1551,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/all_features/all_features.xlsx
+++ b/all_features/all_features.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="all_features" sheetId="2" r:id="rId2"/>
+    <sheet name="all_features" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -17,10 +16,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>csvpp</author>
   </authors>
   <commentList>
-    <comment ref="A42" authorId="0">
+    <comment ref="A38" authorId="0">
       <text>
         <r>
           <t>this is a note</t>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>border</t>
     <phoneticPr fontId="1"/>
@@ -82,15 +81,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expand</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expand=3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>expand=3</t>
+    <t>fill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fill=3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -98,10 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>expand=3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>fontcolor=FF0000</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,26 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>format</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>format=bold</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>format=italic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>format=underline</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>format=strikethrough</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>halign</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -186,15 +157,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>numberformat=date</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
+    <t>1/23</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -202,7 +169,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
+    <t>1/23 4:56</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -210,31 +177,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>numberformat=percent</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>numberformat=text</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>numberformat=time</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
+    <t>1:23.456</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -242,7 +197,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>123456</t>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text=bold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text=italic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text=underline</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text=strikethrough</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -282,12 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="$#,##0_-"/>
-    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="178" formatCode="d/m/yy h:mm"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,58 +261,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <color rgb="#FF0000"/>
-    </font>
-    <font>
-      <color rgb="#AABBCC"/>
-    </font>
-    <font>
-      <name val="Comic Sans Ms"/>
-      <scheme val="none"/>
-    </font>
-    <font>
-      <name val="Helvetica"/>
-      <scheme val="none"/>
-    </font>
-    <font>
-      <sz val="20"/>
-    </font>
-    <font>
-      <sz val="4"/>
-    </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <i/>
-    </font>
-    <font>
-      <u/>
-    </font>
-    <font>
-      <strike/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="#FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="#AABBCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -354,95 +278,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellXfs count="33">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="bottom"/>
-    </xf>
   </cellXfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -711,17 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C65"/>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:3">
@@ -730,27 +559,27 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" t="s" s="2">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s" s="4">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -761,12 +590,12 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" t="s" s="7">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -777,12 +606,12 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" t="s" s="8">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" t="s" s="9">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -799,237 +628,240 @@
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3"/>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="B20" t="s" s="10">
+    <row r="24" spans="1:3"/>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="B21" t="s" s="11">
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:3"/>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="B24" t="s" s="12">
+    <row r="28" spans="1:3"/>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="B25" t="s" s="13">
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3"/>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="B28" t="s" s="14">
+    <row r="32" spans="1:3"/>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="B29" t="s" s="15">
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3"/>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="B32" t="s" s="16">
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="B33" t="s" s="17">
+    <row r="37" spans="1:3"/>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="B34" t="s" s="18">
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="B35" t="s" s="19">
+    <row r="40" spans="1:3"/>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3"/>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="B38" t="s" s="20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="B39" t="s" s="21">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" t="s" s="22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3"/>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>34</v>
+      <c r="C42">
+        <v>123456</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:3"/>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>36</v>
+      <c r="C45">
+        <v>123456</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" t="s" s="23">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>1.23456</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" t="s" s="24">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>123456</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s" s="25">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s" s="26">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" t="s" s="27">
-        <v>46</v>
-      </c>
-    </row>
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3"/>
     <row r="51" spans="1:3">
-      <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s" s="28">
-        <v>48</v>
+      <c r="A51" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" t="s" s="29">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3"/>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3"/>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" t="s">
         <v>51</v>
       </c>
-      <c r="C53" t="s" s="26">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3"/>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="B56" t="s" s="30">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" t="s" s="31">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="B58" t="s" s="32">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3"/>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61">
+      <c r="C63">
         <f>(1 + 2)</f>
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
+    <row r="64" spans="1:3">
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64">
         <f>((1 + 2) * 8)</f>
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C63">
+    <row r="65" spans="1:3">
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65">
         <v>1</v>
       </c>
     </row>

--- a/all_features/all_features.xlsx
+++ b/all_features/all_features.xlsx
@@ -253,7 +253,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="$#,##0_-"/>
+    <numFmt numFmtId="178" formatCode="d/m/yy h:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,16 +266,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="AABBCCFF"/>
+    </font>
+    <font>
+      <name val="Comic Sans Ms"/>
+      <scheme val="none"/>
+    </font>
+    <font>
+      <name val="Helvetica"/>
+      <scheme val="none"/>
+    </font>
+    <font>
+      <sz val="20"/>
+    </font>
+    <font>
+      <sz val="4"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <i/>
+    </font>
+    <font>
+      <u/>
+    </font>
+    <font>
+      <strike/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="AABBCCFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -278,10 +325,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="1" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -559,27 +692,27 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="6">
         <v>5</v>
       </c>
     </row>
@@ -590,12 +723,12 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="6">
         <v>8</v>
       </c>
     </row>
@@ -606,12 +739,12 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="9">
         <v>11</v>
       </c>
     </row>
@@ -643,12 +776,12 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="11">
         <v>16</v>
       </c>
     </row>
@@ -659,12 +792,12 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="13">
         <v>19</v>
       </c>
     </row>
@@ -675,12 +808,12 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="14">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="15">
         <v>22</v>
       </c>
     </row>
@@ -691,17 +824,17 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="18">
         <v>26</v>
       </c>
     </row>
@@ -726,7 +859,7 @@
       <c r="B42" t="s">
         <v>30</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="19">
         <v>123456</v>
       </c>
     </row>
@@ -734,7 +867,7 @@
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" t="s" s="20">
         <v>32</v>
       </c>
     </row>
@@ -742,7 +875,7 @@
       <c r="B44" t="s">
         <v>33</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" t="s" s="21">
         <v>34</v>
       </c>
     </row>
@@ -750,7 +883,7 @@
       <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="22">
         <v>123456</v>
       </c>
     </row>
@@ -758,7 +891,7 @@
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="23">
         <v>1.23456</v>
       </c>
     </row>
@@ -766,7 +899,7 @@
       <c r="B47" t="s">
         <v>37</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="24">
         <v>123456</v>
       </c>
     </row>
@@ -774,7 +907,7 @@
       <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" t="s" s="25">
         <v>39</v>
       </c>
     </row>
@@ -782,7 +915,7 @@
       <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="26">
         <v>123456</v>
       </c>
     </row>
@@ -793,22 +926,22 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" t="s">
+      <c r="B52" t="s" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="B53" t="s">
+      <c r="B53" t="s" s="28">
         <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="B54" t="s">
+      <c r="B54" t="s" s="29">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" t="s">
+      <c r="B55" t="s" s="30">
         <v>45</v>
       </c>
     </row>
@@ -819,17 +952,17 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="B58" t="s">
+      <c r="B58" t="s" s="31">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="B59" t="s">
+      <c r="B59" t="s" s="32">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="B60" t="s">
+      <c r="B60" t="s" s="33">
         <v>49</v>
       </c>
     </row>

--- a/all_features/all_features.xlsx
+++ b/all_features/all_features.xlsx
@@ -254,9 +254,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
+    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="176" formatCode="$#,##0_-"/>
     <numFmt numFmtId="178" formatCode="d/m/yy h:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
